--- a/static/uploads/mo_import_template.xlsx
+++ b/static/uploads/mo_import_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iknow\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iknow\OneDrive\Desktop\My Project\phoebe\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D659E973-8F5E-4F91-836B-8CEE2758FD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E27BC0-8102-4010-A50B-21567C3F2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>mo</t>
   </si>
@@ -56,25 +56,13 @@
     <t>metal-fabric finishing</t>
   </si>
   <si>
-    <t>order qty</t>
-  </si>
-  <si>
     <t>produce qty</t>
   </si>
   <si>
     <t>remarks</t>
   </si>
   <si>
-    <t>unit price</t>
-  </si>
-  <si>
     <t>discount price</t>
-  </si>
-  <si>
-    <t>month production</t>
-  </si>
-  <si>
-    <t>ship date</t>
   </si>
 </sst>
 </file>
@@ -110,9 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,20 +380,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.08203125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="46.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,31 +412,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploads/mo_import_template.xlsx
+++ b/static/uploads/mo_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iknow\OneDrive\Desktop\My Project\phoebe\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E27BC0-8102-4010-A50B-21567C3F2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406E2D6-A59C-484E-B7A5-31ED961AE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>mo</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>discount price</t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
 </sst>
 </file>
@@ -380,25 +383,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="57.08203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="57.125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="46.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,6 +428,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploads/mo_import_template.xlsx
+++ b/static/uploads/mo_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iknow\OneDrive\Desktop\My Project\phoebe\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406E2D6-A59C-484E-B7A5-31ED961AE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42ED408-E7C8-4FDA-8E32-EDAA1576F3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,44 +36,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>product code</t>
-  </si>
-  <si>
-    <t>product name</t>
-  </si>
-  <si>
-    <t>finishing description</t>
-  </si>
-  <si>
-    <t>metal-fabric finishing</t>
-  </si>
-  <si>
-    <t>produce qty</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>discount price</t>
-  </si>
-  <si>
-    <t>customer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Produce Quantity</t>
+  </si>
+  <si>
+    <t>Finishing Description</t>
+  </si>
+  <si>
+    <t>Metal - Fabric Finishing</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Discount Price</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Need Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -101,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,54 +395,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="57.125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
